--- a/6 新版工具/6.0/大号/选型.xlsx
+++ b/6 新版工具/6.0/大号/选型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="选型" sheetId="5" r:id="rId1"/>
@@ -2263,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8646,7 +8646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/6 新版工具/6.0/大号/选型.xlsx
+++ b/6 新版工具/6.0/大号/选型.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="选型" sheetId="5" r:id="rId1"/>
     <sheet name="测试" sheetId="6" r:id="rId2"/>
+    <sheet name="增添修改版" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="441">
   <si>
     <t>文章来源</t>
   </si>
@@ -1791,6 +1792,106 @@
   </si>
   <si>
     <t>京瓷高分辨率液晶显示屏选型指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液晶显示屏,TFT,液晶显示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCG070WVLSJPPB-GA20</t>
+  </si>
+  <si>
+    <t>TCG070WVLSJPPA-GD20</t>
+  </si>
+  <si>
+    <t>TCG070WVLQEPNN-AN20</t>
+  </si>
+  <si>
+    <t>京瓷7寸LVDS液晶显示器选型指南</t>
+  </si>
+  <si>
+    <t>京瓷7寸LVDS液晶显示器选型指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kyocera-display.com/products/partdetail.asp?PartNumber=TCG070WVLSJPPB-GA20</t>
+  </si>
+  <si>
+    <t>http://www.kyocera-display.com/products/partdetail.asp?PartNumber=TCG070WVLSJPPA-GD20</t>
+  </si>
+  <si>
+    <t>http://www.kyocera-display.com/products/partdetail.asp?PartNumber=TCG070WVLQEPNN-AN20</t>
+  </si>
+  <si>
+    <t>京瓷7.5寸液晶显示器选型指南</t>
+  </si>
+  <si>
+    <t>京瓷7.5寸液晶显示器选型指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京瓷高分辨率液晶显示屏选型指南（&gt;100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-55343GD035JU-LW-AEN</t>
+  </si>
+  <si>
+    <t>T-55343GD035JU-LW-ADN</t>
+  </si>
+  <si>
+    <t>http://www.kyocera-display.com/products/partdetail.asp?PartNumber=T-55343GD035JU-LW-AEN</t>
+  </si>
+  <si>
+    <t>http://www.kyocera-display.com/products/partdetail.asp?PartNumber=T-55343GD035JU-LW-ADN</t>
+  </si>
+  <si>
+    <t>京瓷12.1寸液晶显示器选型指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京瓷低亮度（&lt;300尼特）液晶显示屏选型指南</t>
+  </si>
+  <si>
+    <t>京瓷低亮度（&lt;300尼特）液晶显示屏选型指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京瓷高对比度（&gt;1000）液晶显示屏选型指南</t>
+  </si>
+  <si>
+    <t>京瓷高对比度（&gt;1000）液晶显示屏选型指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京瓷低对比度（&lt;400）液晶显示屏选型指南</t>
+  </si>
+  <si>
+    <t>京瓷低对比度（&lt;400）液晶显示屏选型指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京瓷耐低温液晶显示屏选型指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京瓷耐低温液晶显示屏选型指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京瓷耐低温液晶显示屏选型(-30)指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京瓷小质量（&lt;50）液晶显示屏选型指南</t>
+  </si>
+  <si>
+    <t>京瓷小质量（&lt;50）液晶显示屏选型指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1909,7 +2010,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1920,6 +2021,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2016,23 +2123,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2068,23 +2158,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2263,25 +2336,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" customWidth="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="77.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2313,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2345,7 +2418,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2377,7 +2450,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2409,7 +2482,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2441,7 +2514,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2473,7 +2546,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2505,7 +2578,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2537,7 +2610,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2569,7 +2642,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2601,7 +2674,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -2633,7 +2706,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2665,7 +2738,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -2697,7 +2770,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2729,7 +2802,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -2761,7 +2834,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2794,7 +2867,7 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -2827,7 +2900,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -2860,7 +2933,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -2893,7 +2966,7 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -2926,7 +2999,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -2959,7 +3032,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -2992,7 +3065,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -3025,7 +3098,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -3058,7 +3131,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -3091,7 +3164,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -3124,7 +3197,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -3157,7 +3230,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -3190,7 +3263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -3223,7 +3296,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -3256,7 +3329,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>6</v>
       </c>
@@ -3289,7 +3362,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>6</v>
       </c>
@@ -3322,7 +3395,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>6</v>
       </c>
@@ -3355,7 +3428,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>7</v>
       </c>
@@ -3388,7 +3461,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -3421,7 +3494,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>7</v>
       </c>
@@ -3454,7 +3527,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>8</v>
       </c>
@@ -3487,7 +3560,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>8</v>
       </c>
@@ -3520,7 +3593,7 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>8</v>
       </c>
@@ -3553,7 +3626,7 @@
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>8</v>
       </c>
@@ -3586,7 +3659,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>8</v>
       </c>
@@ -3619,7 +3692,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>8</v>
       </c>
@@ -3652,7 +3725,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>8</v>
       </c>
@@ -3685,7 +3758,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>9</v>
       </c>
@@ -3718,7 +3791,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>9</v>
       </c>
@@ -3751,7 +3824,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>9</v>
       </c>
@@ -3784,7 +3857,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>9</v>
       </c>
@@ -3817,7 +3890,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>9</v>
       </c>
@@ -3850,7 +3923,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>9</v>
       </c>
@@ -3883,7 +3956,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>9</v>
       </c>
@@ -3916,7 +3989,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>10</v>
       </c>
@@ -3949,7 +4022,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>10</v>
       </c>
@@ -3982,7 +4055,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>10</v>
       </c>
@@ -4015,7 +4088,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>10</v>
       </c>
@@ -4048,7 +4121,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>10</v>
       </c>
@@ -4081,7 +4154,7 @@
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>10</v>
       </c>
@@ -4114,7 +4187,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>10</v>
       </c>
@@ -4147,7 +4220,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>10</v>
       </c>
@@ -4180,7 +4253,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>10</v>
       </c>
@@ -4213,7 +4286,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>10</v>
       </c>
@@ -4246,7 +4319,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>10</v>
       </c>
@@ -4279,7 +4352,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>10</v>
       </c>
@@ -4312,7 +4385,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>10</v>
       </c>
@@ -4345,7 +4418,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>11</v>
       </c>
@@ -4378,7 +4451,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>11</v>
       </c>
@@ -4411,7 +4484,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>11</v>
       </c>
@@ -4444,7 +4517,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>11</v>
       </c>
@@ -4477,7 +4550,7 @@
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>11</v>
       </c>
@@ -4510,7 +4583,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>11</v>
       </c>
@@ -4543,7 +4616,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>12</v>
       </c>
@@ -4576,7 +4649,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>12</v>
       </c>
@@ -4609,7 +4682,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>12</v>
       </c>
@@ -4642,7 +4715,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>12</v>
       </c>
@@ -4675,7 +4748,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>13</v>
       </c>
@@ -4708,7 +4781,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>13</v>
       </c>
@@ -4741,7 +4814,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>13</v>
       </c>
@@ -4774,7 +4847,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>13</v>
       </c>
@@ -4807,7 +4880,7 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>13</v>
       </c>
@@ -4840,7 +4913,7 @@
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>13</v>
       </c>
@@ -4873,7 +4946,7 @@
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>13</v>
       </c>
@@ -4906,7 +4979,7 @@
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>14</v>
       </c>
@@ -4939,7 +5012,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>14</v>
       </c>
@@ -4972,7 +5045,7 @@
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>14</v>
       </c>
@@ -5005,7 +5078,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>14</v>
       </c>
@@ -5038,7 +5111,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>15</v>
       </c>
@@ -5071,7 +5144,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>15</v>
       </c>
@@ -5104,7 +5177,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>15</v>
       </c>
@@ -5137,7 +5210,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>15</v>
       </c>
@@ -5170,7 +5243,7 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>15</v>
       </c>
@@ -5203,7 +5276,7 @@
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>15</v>
       </c>
@@ -5236,7 +5309,7 @@
       </c>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>15</v>
       </c>
@@ -5269,7 +5342,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>15</v>
       </c>
@@ -5302,7 +5375,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>15</v>
       </c>
@@ -5335,7 +5408,7 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>15</v>
       </c>
@@ -5368,7 +5441,7 @@
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>15</v>
       </c>
@@ -5401,7 +5474,7 @@
       </c>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>15</v>
       </c>
@@ -5434,7 +5507,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>15</v>
       </c>
@@ -5467,7 +5540,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>15</v>
       </c>
@@ -5500,7 +5573,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>16</v>
       </c>
@@ -5533,7 +5606,7 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>16</v>
       </c>
@@ -5566,7 +5639,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>16</v>
       </c>
@@ -5599,7 +5672,7 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>16</v>
       </c>
@@ -5632,7 +5705,7 @@
       </c>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>16</v>
       </c>
@@ -5665,7 +5738,7 @@
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>16</v>
       </c>
@@ -5698,7 +5771,7 @@
       </c>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>16</v>
       </c>
@@ -5731,7 +5804,7 @@
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>16</v>
       </c>
@@ -5764,7 +5837,7 @@
       </c>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>16</v>
       </c>
@@ -5797,7 +5870,7 @@
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>16</v>
       </c>
@@ -5830,7 +5903,7 @@
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>16</v>
       </c>
@@ -5863,7 +5936,7 @@
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>16</v>
       </c>
@@ -5896,7 +5969,7 @@
       </c>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>16</v>
       </c>
@@ -5929,7 +6002,7 @@
       </c>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>16</v>
       </c>
@@ -5962,7 +6035,7 @@
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>16</v>
       </c>
@@ -5995,7 +6068,7 @@
       </c>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>16</v>
       </c>
@@ -6028,7 +6101,7 @@
       </c>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>16</v>
       </c>
@@ -6061,7 +6134,7 @@
       </c>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>16</v>
       </c>
@@ -6094,7 +6167,7 @@
       </c>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>16</v>
       </c>
@@ -6127,7 +6200,7 @@
       </c>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>16</v>
       </c>
@@ -6160,7 +6233,7 @@
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>16</v>
       </c>
@@ -6193,7 +6266,7 @@
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>16</v>
       </c>
@@ -6226,7 +6299,7 @@
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>16</v>
       </c>
@@ -6259,7 +6332,7 @@
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>16</v>
       </c>
@@ -6292,7 +6365,7 @@
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>16</v>
       </c>
@@ -6325,7 +6398,7 @@
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>16</v>
       </c>
@@ -6358,7 +6431,7 @@
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>16</v>
       </c>
@@ -6391,7 +6464,7 @@
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>16</v>
       </c>
@@ -6424,7 +6497,7 @@
       </c>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>16</v>
       </c>
@@ -6457,7 +6530,7 @@
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>16</v>
       </c>
@@ -6490,7 +6563,7 @@
       </c>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>17</v>
       </c>
@@ -6523,7 +6596,7 @@
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>17</v>
       </c>
@@ -6556,7 +6629,7 @@
       </c>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>17</v>
       </c>
@@ -6589,7 +6662,7 @@
       </c>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>17</v>
       </c>
@@ -6622,7 +6695,7 @@
       </c>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>17</v>
       </c>
@@ -6655,7 +6728,7 @@
       </c>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>17</v>
       </c>
@@ -6688,7 +6761,7 @@
       </c>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>17</v>
       </c>
@@ -6721,7 +6794,7 @@
       </c>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>17</v>
       </c>
@@ -6754,7 +6827,7 @@
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>17</v>
       </c>
@@ -6787,7 +6860,7 @@
       </c>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>17</v>
       </c>
@@ -6820,7 +6893,7 @@
       </c>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>17</v>
       </c>
@@ -6853,7 +6926,7 @@
       </c>
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>17</v>
       </c>
@@ -6886,7 +6959,7 @@
       </c>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>18</v>
       </c>
@@ -6919,7 +6992,7 @@
       </c>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>18</v>
       </c>
@@ -6952,7 +7025,7 @@
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>18</v>
       </c>
@@ -6985,7 +7058,7 @@
       </c>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>18</v>
       </c>
@@ -7018,7 +7091,7 @@
       </c>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>18</v>
       </c>
@@ -7051,7 +7124,7 @@
       </c>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>18</v>
       </c>
@@ -7084,7 +7157,7 @@
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>18</v>
       </c>
@@ -7117,7 +7190,7 @@
       </c>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>18</v>
       </c>
@@ -7150,7 +7223,7 @@
       </c>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>18</v>
       </c>
@@ -7183,7 +7256,7 @@
       </c>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>18</v>
       </c>
@@ -7216,7 +7289,7 @@
       </c>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>18</v>
       </c>
@@ -7249,7 +7322,7 @@
       </c>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>18</v>
       </c>
@@ -7282,7 +7355,7 @@
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>18</v>
       </c>
@@ -7315,7 +7388,7 @@
       </c>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>19</v>
       </c>
@@ -7348,7 +7421,7 @@
       </c>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>19</v>
       </c>
@@ -7381,7 +7454,7 @@
       </c>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>19</v>
       </c>
@@ -7414,7 +7487,7 @@
       </c>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>19</v>
       </c>
@@ -7447,7 +7520,7 @@
       </c>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>19</v>
       </c>
@@ -7480,7 +7553,7 @@
       </c>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>19</v>
       </c>
@@ -7513,7 +7586,7 @@
       </c>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>19</v>
       </c>
@@ -7546,7 +7619,7 @@
       </c>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>19</v>
       </c>
@@ -7579,7 +7652,7 @@
       </c>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>19</v>
       </c>
@@ -7612,7 +7685,7 @@
       </c>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>19</v>
       </c>
@@ -7645,7 +7718,7 @@
       </c>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>19</v>
       </c>
@@ -7678,7 +7751,7 @@
       </c>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>19</v>
       </c>
@@ -7711,7 +7784,7 @@
       </c>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>19</v>
       </c>
@@ -7744,7 +7817,7 @@
       </c>
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>19</v>
       </c>
@@ -7777,7 +7850,7 @@
       </c>
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>19</v>
       </c>
@@ -7810,7 +7883,7 @@
       </c>
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>19</v>
       </c>
@@ -7843,7 +7916,7 @@
       </c>
       <c r="K169" s="3"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>19</v>
       </c>
@@ -7876,7 +7949,7 @@
       </c>
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>19</v>
       </c>
@@ -7909,7 +7982,7 @@
       </c>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>19</v>
       </c>
@@ -7942,7 +8015,7 @@
       </c>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>19</v>
       </c>
@@ -7975,7 +8048,7 @@
       </c>
       <c r="K173" s="3"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>19</v>
       </c>
@@ -8008,7 +8081,7 @@
       </c>
       <c r="K174" s="3"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>19</v>
       </c>
@@ -8041,7 +8114,7 @@
       </c>
       <c r="K175" s="3"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>19</v>
       </c>
@@ -8074,7 +8147,7 @@
       </c>
       <c r="K176" s="3"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>19</v>
       </c>
@@ -8107,7 +8180,7 @@
       </c>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>19</v>
       </c>
@@ -8140,7 +8213,7 @@
       </c>
       <c r="K178" s="3"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>19</v>
       </c>
@@ -8173,7 +8246,7 @@
       </c>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>19</v>
       </c>
@@ -8206,7 +8279,7 @@
       </c>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>19</v>
       </c>
@@ -8239,7 +8312,7 @@
       </c>
       <c r="K181" s="3"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>19</v>
       </c>
@@ -8272,7 +8345,7 @@
       </c>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>19</v>
       </c>
@@ -8305,7 +8378,7 @@
       </c>
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>19</v>
       </c>
@@ -8338,7 +8411,7 @@
       </c>
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>19</v>
       </c>
@@ -8371,7 +8444,7 @@
       </c>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>19</v>
       </c>
@@ -8404,7 +8477,7 @@
       </c>
       <c r="K186" s="3"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>19</v>
       </c>
@@ -8437,7 +8510,7 @@
       </c>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>19</v>
       </c>
@@ -8470,7 +8543,7 @@
       </c>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>19</v>
       </c>
@@ -8503,7 +8576,7 @@
       </c>
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>19</v>
       </c>
@@ -8536,7 +8609,7 @@
       </c>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>19</v>
       </c>
@@ -8569,7 +8642,7 @@
       </c>
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>19</v>
       </c>
@@ -8602,7 +8675,7 @@
       </c>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>19</v>
       </c>
@@ -8650,9 +8723,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -8684,7 +8757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8716,7 +8789,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8748,7 +8821,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8780,7 +8853,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -8812,7 +8885,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -8844,7 +8917,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -8876,7 +8949,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -8908,7 +8981,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -8940,7 +9013,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -8972,7 +9045,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -9004,7 +9077,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -9036,7 +9109,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -9066,6 +9139,4658 @@
       </c>
       <c r="J13" s="2" t="s">
         <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>7</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>9</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>9</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>9</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>9</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>9</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>9</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>9</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>10</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>10</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>10</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>10</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>10</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>10</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>10</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>11</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>11</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>11</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>11</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>11</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>11</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>11</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>11</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>11</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>11</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>11</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>11</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>11</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>11</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>11</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>11</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>12</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>12</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>12</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>12</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
+        <v>13</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
+        <v>13</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
+        <v>13</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="2">
+        <v>13</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
+        <v>13</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="2">
+        <v>13</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
+        <v>13</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
+        <v>14</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>14</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>14</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>14</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A109" s="5">
+        <v>15</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A110" s="5">
+        <v>15</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A111" s="5">
+        <v>15</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A112" s="5">
+        <v>15</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A113" s="5">
+        <v>15</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A114" s="5">
+        <v>15</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A115" s="5">
+        <v>15</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A116" s="5">
+        <v>15</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A117" s="5">
+        <v>15</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A118" s="2">
+        <v>16</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A119" s="2">
+        <v>16</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>16</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>16</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>16</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>16</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>16</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>16</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A126" s="2">
+        <v>16</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A127" s="2">
+        <v>16</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A128" s="2">
+        <v>16</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A129" s="2">
+        <v>17</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>17</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>17</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>17</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A133" s="2">
+        <v>17</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
+        <v>17</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
+        <v>17</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>17</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>17</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>17</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
+        <v>17</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>17</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>17</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
+        <v>17</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
+        <v>17</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>17</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
+        <v>17</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A146" s="2">
+        <v>17</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A147" s="2">
+        <v>17</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
+        <v>17</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
+        <v>17</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>18</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>18</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>18</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>18</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>18</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>18</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>18</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>18</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>18</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>19</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>19</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>19</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>19</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>19</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>19</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>19</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>19</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>19</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>19</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>19</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>19</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>19</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>20</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>20</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>20</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>20</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>20</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>20</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>20</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/6 新版工具/6.0/大号/选型.xlsx
+++ b/6 新版工具/6.0/大号/选型.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="选型" sheetId="5" r:id="rId1"/>
@@ -2027,98 +2027,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2207,23 +2116,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2259,23 +2151,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2458,21 +2333,21 @@
       <selection sqref="A1:H193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" customWidth="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="77.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2504,7 +2379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2536,7 +2411,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2568,7 +2443,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2600,7 +2475,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2632,7 +2507,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2664,7 +2539,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2696,7 +2571,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2728,7 +2603,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2760,7 +2635,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2792,7 +2667,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -2824,7 +2699,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2856,7 +2731,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -2888,7 +2763,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2920,7 +2795,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -2952,7 +2827,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -2985,7 +2860,7 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -3018,7 +2893,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -3051,7 +2926,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -3084,7 +2959,7 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -3117,7 +2992,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -3150,7 +3025,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -3183,7 +3058,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -3216,7 +3091,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -3249,7 +3124,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -3282,7 +3157,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -3315,7 +3190,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -3348,7 +3223,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -3381,7 +3256,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -3414,7 +3289,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -3447,7 +3322,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>6</v>
       </c>
@@ -3480,7 +3355,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>6</v>
       </c>
@@ -3513,7 +3388,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>6</v>
       </c>
@@ -3546,7 +3421,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>7</v>
       </c>
@@ -3579,7 +3454,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -3612,7 +3487,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>7</v>
       </c>
@@ -3645,7 +3520,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>8</v>
       </c>
@@ -3678,7 +3553,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>8</v>
       </c>
@@ -3711,7 +3586,7 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>8</v>
       </c>
@@ -3744,7 +3619,7 @@
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>8</v>
       </c>
@@ -3777,7 +3652,7 @@
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>8</v>
       </c>
@@ -3810,7 +3685,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>8</v>
       </c>
@@ -3843,7 +3718,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>8</v>
       </c>
@@ -3876,7 +3751,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>9</v>
       </c>
@@ -3909,7 +3784,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>9</v>
       </c>
@@ -3942,7 +3817,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>9</v>
       </c>
@@ -3975,7 +3850,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>9</v>
       </c>
@@ -4008,7 +3883,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>9</v>
       </c>
@@ -4041,7 +3916,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>9</v>
       </c>
@@ -4074,7 +3949,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>9</v>
       </c>
@@ -4107,7 +3982,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>10</v>
       </c>
@@ -4140,7 +4015,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>10</v>
       </c>
@@ -4173,7 +4048,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>10</v>
       </c>
@@ -4206,7 +4081,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>10</v>
       </c>
@@ -4239,7 +4114,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>10</v>
       </c>
@@ -4272,7 +4147,7 @@
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>10</v>
       </c>
@@ -4305,7 +4180,7 @@
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>10</v>
       </c>
@@ -4338,7 +4213,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>10</v>
       </c>
@@ -4371,7 +4246,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>10</v>
       </c>
@@ -4404,7 +4279,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>10</v>
       </c>
@@ -4437,7 +4312,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>10</v>
       </c>
@@ -4470,7 +4345,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>10</v>
       </c>
@@ -4503,7 +4378,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>10</v>
       </c>
@@ -4536,7 +4411,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>11</v>
       </c>
@@ -4569,7 +4444,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>11</v>
       </c>
@@ -4602,7 +4477,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>11</v>
       </c>
@@ -4635,7 +4510,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>11</v>
       </c>
@@ -4668,7 +4543,7 @@
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>11</v>
       </c>
@@ -4701,7 +4576,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>11</v>
       </c>
@@ -4734,7 +4609,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>12</v>
       </c>
@@ -4767,7 +4642,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>12</v>
       </c>
@@ -4800,7 +4675,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>12</v>
       </c>
@@ -4833,7 +4708,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>12</v>
       </c>
@@ -4866,7 +4741,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>13</v>
       </c>
@@ -4899,7 +4774,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>13</v>
       </c>
@@ -4932,7 +4807,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>13</v>
       </c>
@@ -4965,7 +4840,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>13</v>
       </c>
@@ -4998,7 +4873,7 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>13</v>
       </c>
@@ -5031,7 +4906,7 @@
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>13</v>
       </c>
@@ -5064,7 +4939,7 @@
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>13</v>
       </c>
@@ -5097,7 +4972,7 @@
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>14</v>
       </c>
@@ -5130,7 +5005,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>14</v>
       </c>
@@ -5163,7 +5038,7 @@
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>14</v>
       </c>
@@ -5196,7 +5071,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>14</v>
       </c>
@@ -5229,7 +5104,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>15</v>
       </c>
@@ -5262,7 +5137,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>15</v>
       </c>
@@ -5295,7 +5170,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>15</v>
       </c>
@@ -5328,7 +5203,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>15</v>
       </c>
@@ -5361,7 +5236,7 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>15</v>
       </c>
@@ -5394,7 +5269,7 @@
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>15</v>
       </c>
@@ -5427,7 +5302,7 @@
       </c>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>15</v>
       </c>
@@ -5460,7 +5335,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>15</v>
       </c>
@@ -5493,7 +5368,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>15</v>
       </c>
@@ -5526,7 +5401,7 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>15</v>
       </c>
@@ -5559,7 +5434,7 @@
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>15</v>
       </c>
@@ -5592,7 +5467,7 @@
       </c>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>15</v>
       </c>
@@ -5625,7 +5500,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>15</v>
       </c>
@@ -5658,7 +5533,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>15</v>
       </c>
@@ -5691,7 +5566,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>16</v>
       </c>
@@ -5724,7 +5599,7 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>16</v>
       </c>
@@ -5757,7 +5632,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>16</v>
       </c>
@@ -5790,7 +5665,7 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>16</v>
       </c>
@@ -5823,7 +5698,7 @@
       </c>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>16</v>
       </c>
@@ -5856,7 +5731,7 @@
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>16</v>
       </c>
@@ -5889,7 +5764,7 @@
       </c>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>16</v>
       </c>
@@ -5922,7 +5797,7 @@
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>16</v>
       </c>
@@ -5955,7 +5830,7 @@
       </c>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>16</v>
       </c>
@@ -5988,7 +5863,7 @@
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>16</v>
       </c>
@@ -6021,7 +5896,7 @@
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>16</v>
       </c>
@@ -6054,7 +5929,7 @@
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>16</v>
       </c>
@@ -6087,7 +5962,7 @@
       </c>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>16</v>
       </c>
@@ -6120,7 +5995,7 @@
       </c>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>16</v>
       </c>
@@ -6153,7 +6028,7 @@
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>16</v>
       </c>
@@ -6186,7 +6061,7 @@
       </c>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>16</v>
       </c>
@@ -6219,7 +6094,7 @@
       </c>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>16</v>
       </c>
@@ -6252,7 +6127,7 @@
       </c>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>16</v>
       </c>
@@ -6285,7 +6160,7 @@
       </c>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>16</v>
       </c>
@@ -6318,7 +6193,7 @@
       </c>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>16</v>
       </c>
@@ -6351,7 +6226,7 @@
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>16</v>
       </c>
@@ -6384,7 +6259,7 @@
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>16</v>
       </c>
@@ -6417,7 +6292,7 @@
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>16</v>
       </c>
@@ -6450,7 +6325,7 @@
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>16</v>
       </c>
@@ -6483,7 +6358,7 @@
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>16</v>
       </c>
@@ -6516,7 +6391,7 @@
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>16</v>
       </c>
@@ -6549,7 +6424,7 @@
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>16</v>
       </c>
@@ -6582,7 +6457,7 @@
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>16</v>
       </c>
@@ -6615,7 +6490,7 @@
       </c>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>16</v>
       </c>
@@ -6648,7 +6523,7 @@
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>16</v>
       </c>
@@ -6681,7 +6556,7 @@
       </c>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>17</v>
       </c>
@@ -6714,7 +6589,7 @@
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>17</v>
       </c>
@@ -6747,7 +6622,7 @@
       </c>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>17</v>
       </c>
@@ -6780,7 +6655,7 @@
       </c>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>17</v>
       </c>
@@ -6813,7 +6688,7 @@
       </c>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>17</v>
       </c>
@@ -6846,7 +6721,7 @@
       </c>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>17</v>
       </c>
@@ -6879,7 +6754,7 @@
       </c>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>17</v>
       </c>
@@ -6912,7 +6787,7 @@
       </c>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>17</v>
       </c>
@@ -6945,7 +6820,7 @@
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>17</v>
       </c>
@@ -6978,7 +6853,7 @@
       </c>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>17</v>
       </c>
@@ -7011,7 +6886,7 @@
       </c>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>17</v>
       </c>
@@ -7044,7 +6919,7 @@
       </c>
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>17</v>
       </c>
@@ -7077,7 +6952,7 @@
       </c>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>18</v>
       </c>
@@ -7110,7 +6985,7 @@
       </c>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>18</v>
       </c>
@@ -7143,7 +7018,7 @@
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>18</v>
       </c>
@@ -7176,7 +7051,7 @@
       </c>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>18</v>
       </c>
@@ -7209,7 +7084,7 @@
       </c>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>18</v>
       </c>
@@ -7242,7 +7117,7 @@
       </c>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>18</v>
       </c>
@@ -7275,7 +7150,7 @@
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>18</v>
       </c>
@@ -7308,7 +7183,7 @@
       </c>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>18</v>
       </c>
@@ -7341,7 +7216,7 @@
       </c>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>18</v>
       </c>
@@ -7374,7 +7249,7 @@
       </c>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>18</v>
       </c>
@@ -7407,7 +7282,7 @@
       </c>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>18</v>
       </c>
@@ -7440,7 +7315,7 @@
       </c>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>18</v>
       </c>
@@ -7473,7 +7348,7 @@
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>18</v>
       </c>
@@ -7506,7 +7381,7 @@
       </c>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>19</v>
       </c>
@@ -7539,7 +7414,7 @@
       </c>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>19</v>
       </c>
@@ -7572,7 +7447,7 @@
       </c>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>19</v>
       </c>
@@ -7605,7 +7480,7 @@
       </c>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>19</v>
       </c>
@@ -7638,7 +7513,7 @@
       </c>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>19</v>
       </c>
@@ -7671,7 +7546,7 @@
       </c>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>19</v>
       </c>
@@ -7704,7 +7579,7 @@
       </c>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>19</v>
       </c>
@@ -7737,7 +7612,7 @@
       </c>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>19</v>
       </c>
@@ -7770,7 +7645,7 @@
       </c>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>19</v>
       </c>
@@ -7803,7 +7678,7 @@
       </c>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>19</v>
       </c>
@@ -7836,7 +7711,7 @@
       </c>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>19</v>
       </c>
@@ -7869,7 +7744,7 @@
       </c>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>19</v>
       </c>
@@ -7902,7 +7777,7 @@
       </c>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>19</v>
       </c>
@@ -7935,7 +7810,7 @@
       </c>
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>19</v>
       </c>
@@ -7968,7 +7843,7 @@
       </c>
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>19</v>
       </c>
@@ -8001,7 +7876,7 @@
       </c>
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>19</v>
       </c>
@@ -8034,7 +7909,7 @@
       </c>
       <c r="K169" s="3"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>19</v>
       </c>
@@ -8067,7 +7942,7 @@
       </c>
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>19</v>
       </c>
@@ -8100,7 +7975,7 @@
       </c>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>19</v>
       </c>
@@ -8133,7 +8008,7 @@
       </c>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>19</v>
       </c>
@@ -8166,7 +8041,7 @@
       </c>
       <c r="K173" s="3"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>19</v>
       </c>
@@ -8199,7 +8074,7 @@
       </c>
       <c r="K174" s="3"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>19</v>
       </c>
@@ -8232,7 +8107,7 @@
       </c>
       <c r="K175" s="3"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>19</v>
       </c>
@@ -8265,7 +8140,7 @@
       </c>
       <c r="K176" s="3"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>19</v>
       </c>
@@ -8298,7 +8173,7 @@
       </c>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>19</v>
       </c>
@@ -8331,7 +8206,7 @@
       </c>
       <c r="K178" s="3"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>19</v>
       </c>
@@ -8364,7 +8239,7 @@
       </c>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>19</v>
       </c>
@@ -8397,7 +8272,7 @@
       </c>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>19</v>
       </c>
@@ -8430,7 +8305,7 @@
       </c>
       <c r="K181" s="3"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>19</v>
       </c>
@@ -8463,7 +8338,7 @@
       </c>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>19</v>
       </c>
@@ -8496,7 +8371,7 @@
       </c>
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>19</v>
       </c>
@@ -8529,7 +8404,7 @@
       </c>
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>19</v>
       </c>
@@ -8562,7 +8437,7 @@
       </c>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>19</v>
       </c>
@@ -8595,7 +8470,7 @@
       </c>
       <c r="K186" s="3"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>19</v>
       </c>
@@ -8628,7 +8503,7 @@
       </c>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>19</v>
       </c>
@@ -8661,7 +8536,7 @@
       </c>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>19</v>
       </c>
@@ -8694,7 +8569,7 @@
       </c>
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>19</v>
       </c>
@@ -8727,7 +8602,7 @@
       </c>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>19</v>
       </c>
@@ -8760,7 +8635,7 @@
       </c>
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>19</v>
       </c>
@@ -8793,7 +8668,7 @@
       </c>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>19</v>
       </c>
@@ -8841,9 +8716,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -8875,7 +8750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8907,7 +8782,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8939,7 +8814,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8971,7 +8846,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -9003,7 +8878,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -9035,7 +8910,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -9067,7 +8942,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -9099,7 +8974,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -9131,7 +9006,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -9163,7 +9038,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -9195,7 +9070,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -9227,7 +9102,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -9270,20 +9145,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:H159"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C97" sqref="C95:C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -9309,7 +9184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9335,7 +9210,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -9361,7 +9236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -9387,7 +9262,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -9413,7 +9288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -9439,7 +9314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -9465,7 +9340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -9491,7 +9366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -9517,7 +9392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -9543,7 +9418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -9569,7 +9444,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -9595,7 +9470,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -9621,7 +9496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -9647,7 +9522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -9673,7 +9548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -9699,7 +9574,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -9725,7 +9600,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -9751,7 +9626,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -9777,7 +9652,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -9803,7 +9678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -9829,7 +9704,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -9855,7 +9730,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -9881,7 +9756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -9907,7 +9782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -9933,7 +9808,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -9959,7 +9834,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -9985,7 +9860,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -10011,7 +9886,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -10037,7 +9912,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>5</v>
       </c>
@@ -10063,7 +9938,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -10089,7 +9964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>6</v>
       </c>
@@ -10115,7 +9990,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>6</v>
       </c>
@@ -10141,7 +10016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -10167,7 +10042,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>6</v>
       </c>
@@ -10193,7 +10068,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>6</v>
       </c>
@@ -10219,7 +10094,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>6</v>
       </c>
@@ -10245,7 +10120,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>7</v>
       </c>
@@ -10271,7 +10146,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>7</v>
       </c>
@@ -10297,7 +10172,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>7</v>
       </c>
@@ -10323,7 +10198,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -10349,7 +10224,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>7</v>
       </c>
@@ -10375,7 +10250,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>7</v>
       </c>
@@ -10401,7 +10276,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>7</v>
       </c>
@@ -10427,7 +10302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>8</v>
       </c>
@@ -10453,7 +10328,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>8</v>
       </c>
@@ -10479,7 +10354,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>8</v>
       </c>
@@ -10505,7 +10380,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>9</v>
       </c>
@@ -10531,7 +10406,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>9</v>
       </c>
@@ -10557,7 +10432,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>9</v>
       </c>
@@ -10583,7 +10458,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>9</v>
       </c>
@@ -10609,7 +10484,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>9</v>
       </c>
@@ -10635,7 +10510,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>9</v>
       </c>
@@ -10661,7 +10536,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>9</v>
       </c>
@@ -10687,7 +10562,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>10</v>
       </c>
@@ -10713,7 +10588,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>10</v>
       </c>
@@ -10739,7 +10614,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>10</v>
       </c>
@@ -10765,7 +10640,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>10</v>
       </c>
@@ -10791,7 +10666,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>10</v>
       </c>
@@ -10817,7 +10692,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>10</v>
       </c>
@@ -10843,7 +10718,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>10</v>
       </c>
@@ -10869,7 +10744,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>11</v>
       </c>
@@ -10895,7 +10770,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>11</v>
       </c>
@@ -10921,7 +10796,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>11</v>
       </c>
@@ -10947,7 +10822,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>11</v>
       </c>
@@ -10973,7 +10848,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>11</v>
       </c>
@@ -10999,7 +10874,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>11</v>
       </c>
@@ -11025,7 +10900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>11</v>
       </c>
@@ -11051,7 +10926,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>11</v>
       </c>
@@ -11077,7 +10952,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>11</v>
       </c>
@@ -11103,7 +10978,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>11</v>
       </c>
@@ -11129,7 +11004,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>11</v>
       </c>
@@ -11155,7 +11030,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>11</v>
       </c>
@@ -11181,7 +11056,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>11</v>
       </c>
@@ -11207,7 +11082,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>12</v>
       </c>
@@ -11233,7 +11108,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>12</v>
       </c>
@@ -11259,7 +11134,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>12</v>
       </c>
@@ -11285,7 +11160,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>12</v>
       </c>
@@ -11311,7 +11186,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>13</v>
       </c>
@@ -11337,7 +11212,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>13</v>
       </c>
@@ -11363,7 +11238,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>13</v>
       </c>
@@ -11389,7 +11264,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>13</v>
       </c>
@@ -11415,7 +11290,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>13</v>
       </c>
@@ -11441,7 +11316,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>13</v>
       </c>
@@ -11467,7 +11342,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>13</v>
       </c>
@@ -11493,7 +11368,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>14</v>
       </c>
@@ -11519,7 +11394,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>14</v>
       </c>
@@ -11545,7 +11420,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>14</v>
       </c>
@@ -11571,7 +11446,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>14</v>
       </c>
@@ -11597,7 +11472,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>15</v>
       </c>
@@ -11623,7 +11498,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>15</v>
       </c>
@@ -11649,7 +11524,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>15</v>
       </c>
@@ -11675,7 +11550,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>15</v>
       </c>
@@ -11701,7 +11576,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>15</v>
       </c>
@@ -11727,7 +11602,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>15</v>
       </c>
@@ -11753,7 +11628,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>15</v>
       </c>
@@ -11779,7 +11654,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>15</v>
       </c>
@@ -11805,7 +11680,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>15</v>
       </c>
@@ -11831,7 +11706,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>16</v>
       </c>
@@ -11857,7 +11732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>16</v>
       </c>
@@ -11883,7 +11758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>16</v>
       </c>
@@ -11909,7 +11784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>16</v>
       </c>
@@ -11935,7 +11810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>16</v>
       </c>
@@ -11961,7 +11836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>16</v>
       </c>
@@ -11987,7 +11862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>16</v>
       </c>
@@ -12013,7 +11888,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>16</v>
       </c>
@@ -12039,7 +11914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>16</v>
       </c>
@@ -12065,7 +11940,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>16</v>
       </c>
@@ -12091,7 +11966,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>16</v>
       </c>
@@ -12117,7 +11992,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>17</v>
       </c>
@@ -12143,7 +12018,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>17</v>
       </c>
@@ -12169,7 +12044,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>17</v>
       </c>
@@ -12195,7 +12070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>17</v>
       </c>
@@ -12221,7 +12096,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>17</v>
       </c>
@@ -12247,7 +12122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>17</v>
       </c>
@@ -12273,7 +12148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>17</v>
       </c>
@@ -12299,7 +12174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>17</v>
       </c>
@@ -12325,7 +12200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>17</v>
       </c>
@@ -12351,7 +12226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>17</v>
       </c>
@@ -12377,7 +12252,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>17</v>
       </c>
@@ -12403,7 +12278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>17</v>
       </c>
@@ -12429,7 +12304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>17</v>
       </c>
@@ -12455,7 +12330,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>17</v>
       </c>
@@ -12481,7 +12356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>17</v>
       </c>
@@ -12507,7 +12382,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>17</v>
       </c>
@@ -12533,7 +12408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>17</v>
       </c>
@@ -12559,7 +12434,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>17</v>
       </c>
@@ -12585,7 +12460,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>17</v>
       </c>
@@ -12611,7 +12486,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>17</v>
       </c>
@@ -12637,7 +12512,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>17</v>
       </c>
@@ -12663,7 +12538,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>18</v>
       </c>
@@ -12689,7 +12564,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>18</v>
       </c>
@@ -12715,7 +12590,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>18</v>
       </c>
@@ -12741,7 +12616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>18</v>
       </c>
@@ -12767,7 +12642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>18</v>
       </c>
@@ -12793,7 +12668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>18</v>
       </c>
@@ -12819,7 +12694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>18</v>
       </c>
@@ -12845,7 +12720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>18</v>
       </c>
@@ -12871,7 +12746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>18</v>
       </c>
@@ -12897,7 +12772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>19</v>
       </c>
@@ -12923,7 +12798,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>19</v>
       </c>
@@ -12949,7 +12824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>19</v>
       </c>
@@ -12975,7 +12850,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>19</v>
       </c>
@@ -13001,7 +12876,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>19</v>
       </c>
@@ -13027,7 +12902,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>19</v>
       </c>
@@ -13053,7 +12928,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>19</v>
       </c>
@@ -13079,7 +12954,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>19</v>
       </c>
@@ -13105,7 +12980,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>19</v>
       </c>
@@ -13131,7 +13006,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>19</v>
       </c>
@@ -13157,7 +13032,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>19</v>
       </c>
@@ -13183,7 +13058,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>19</v>
       </c>
@@ -13209,7 +13084,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>19</v>
       </c>
@@ -13235,7 +13110,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>20</v>
       </c>
@@ -13261,7 +13136,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>20</v>
       </c>
@@ -13287,7 +13162,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>20</v>
       </c>
@@ -13313,7 +13188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>20</v>
       </c>
@@ -13339,7 +13214,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>20</v>
       </c>
@@ -13365,7 +13240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>20</v>
       </c>
@@ -13391,7 +13266,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>20</v>
       </c>
@@ -13428,20 +13303,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="38.125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -13467,7 +13342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -13493,7 +13368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -13519,7 +13394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -13545,7 +13420,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -13571,7 +13446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -13597,7 +13472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -13623,7 +13498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -13649,7 +13524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -13675,7 +13550,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -13701,7 +13576,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -13727,7 +13602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -13753,7 +13628,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -13779,7 +13654,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -13805,7 +13680,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -13831,7 +13706,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -13857,7 +13732,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -13883,7 +13758,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -13909,7 +13784,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -13935,7 +13810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -13961,7 +13836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -13987,7 +13862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -14013,7 +13888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -14039,7 +13914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -14065,7 +13940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -14091,7 +13966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -14117,7 +13992,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -14143,7 +14018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -14169,7 +14044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>5</v>
       </c>
@@ -14195,7 +14070,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>5</v>
       </c>
@@ -14221,7 +14096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -14247,7 +14122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>6</v>
       </c>
@@ -14273,7 +14148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>6</v>
       </c>
@@ -14299,7 +14174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -14325,7 +14200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>6</v>
       </c>
@@ -14351,7 +14226,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>6</v>
       </c>
@@ -14377,7 +14252,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>6</v>
       </c>
@@ -14403,7 +14278,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>7</v>
       </c>
@@ -14429,7 +14304,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>7</v>
       </c>
@@ -14455,7 +14330,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>7</v>
       </c>
@@ -14481,7 +14356,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -14507,7 +14382,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>7</v>
       </c>
@@ -14533,7 +14408,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>7</v>
       </c>
@@ -14559,7 +14434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>7</v>
       </c>
@@ -14585,7 +14460,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>8</v>
       </c>
@@ -14611,7 +14486,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>8</v>
       </c>
@@ -14637,7 +14512,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>8</v>
       </c>
@@ -14663,7 +14538,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>9</v>
       </c>
@@ -14689,7 +14564,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>9</v>
       </c>
@@ -14715,7 +14590,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>9</v>
       </c>
@@ -14741,7 +14616,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>9</v>
       </c>
@@ -14767,7 +14642,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>9</v>
       </c>
@@ -14793,7 +14668,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>9</v>
       </c>
@@ -14819,7 +14694,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>9</v>
       </c>
@@ -14845,7 +14720,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>10</v>
       </c>
@@ -14871,7 +14746,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>10</v>
       </c>
@@ -14897,7 +14772,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>10</v>
       </c>
@@ -14923,7 +14798,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>10</v>
       </c>
@@ -14949,7 +14824,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>10</v>
       </c>
@@ -14975,7 +14850,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>10</v>
       </c>
@@ -15001,7 +14876,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>10</v>
       </c>
@@ -15027,7 +14902,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>11</v>
       </c>
@@ -15053,7 +14928,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>11</v>
       </c>
@@ -15079,7 +14954,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>11</v>
       </c>
@@ -15105,7 +14980,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>11</v>
       </c>
@@ -15131,7 +15006,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>11</v>
       </c>
@@ -15157,7 +15032,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>11</v>
       </c>
@@ -15183,7 +15058,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>11</v>
       </c>
@@ -15209,7 +15084,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>11</v>
       </c>
@@ -15235,7 +15110,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>11</v>
       </c>
@@ -15261,7 +15136,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>11</v>
       </c>
@@ -15287,7 +15162,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>11</v>
       </c>
@@ -15313,7 +15188,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>11</v>
       </c>
@@ -15339,7 +15214,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>11</v>
       </c>
@@ -15365,7 +15240,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>12</v>
       </c>
@@ -15391,7 +15266,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>12</v>
       </c>
@@ -15417,7 +15292,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>12</v>
       </c>
@@ -15443,7 +15318,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>12</v>
       </c>
@@ -15469,7 +15344,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>13</v>
       </c>
@@ -15495,7 +15370,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>13</v>
       </c>
@@ -15521,7 +15396,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>13</v>
       </c>
@@ -15547,7 +15422,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>13</v>
       </c>
@@ -15573,7 +15448,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>13</v>
       </c>
@@ -15599,7 +15474,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>13</v>
       </c>
@@ -15625,7 +15500,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>13</v>
       </c>
@@ -15651,7 +15526,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>14</v>
       </c>
@@ -15677,7 +15552,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>14</v>
       </c>
@@ -15703,7 +15578,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>14</v>
       </c>
@@ -15729,7 +15604,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>14</v>
       </c>
